--- a/Products with Python/Descent MK3/MK3_PR/MK3_FFP_PR_84.0_-14.08.xlsx
+++ b/Products with Python/Descent MK3/MK3_PR/MK3_FFP_PR_84.0_-14.08.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Python\Products with Python\Descent MK3\MK3_PR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65376B60-C494-45E1-A5FC-036659698B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F3A9BB-81B4-4D08-A77A-948B012CE736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3008,8 +3008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
